--- a/Template/Projektplan.xlsx
+++ b/Template/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CBD416A-81A7-481A-9744-B32DE256B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078D170-F315-4CAB-9792-B8A38E027399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5865" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>Checklist</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Beschreibung der Anwendung</t>
+  </si>
+  <si>
+    <t>Konstruktion inkl. Beschreibung</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1112,26 +1115,16 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3701,6 +3694,62 @@
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>189033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B375A8-952A-4750-92B9-DCBD66B1F8BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5895974" y="6429375"/>
+          <a:ext cx="5324475" cy="131883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -8094,11 +8143,11 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8120,12 +8169,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8342,12 +8391,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -8392,12 +8441,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -8511,7 +8560,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8644,21 +8693,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -8871,7 +8920,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
-        <f t="shared" ref="A16:A36" si="0">A15+1</f>
+        <f t="shared" ref="A16:A37" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -8921,7 +8970,7 @@
       <c r="O17" s="41"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="35"/>
-      <c r="R17" s="68"/>
+      <c r="R17" s="64"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
@@ -9247,7 +9296,7 @@
       <c r="Q29" s="35"/>
       <c r="R29" s="36"/>
     </row>
-    <row r="30" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9271,10 +9320,10 @@
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
       <c r="P30" s="42"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="67"/>
-    </row>
-    <row r="31" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9282,7 +9331,7 @@
       <c r="B31" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="63">
         <v>2</v>
       </c>
       <c r="D31" s="32"/>
@@ -9298,7 +9347,7 @@
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
       <c r="P31" s="34"/>
-      <c r="Q31" s="70"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
@@ -9326,42 +9375,42 @@
       <c r="P32" s="42"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="39">
         <v>2</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="48"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
       <c r="R33" s="36"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C34" s="39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="41"/>
@@ -9380,62 +9429,85 @@
       <c r="R34" s="36"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
-        <f t="shared" si="0"/>
+      <c r="A35" s="29">
+        <f>A34+1</f>
         <v>22</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="42"/>
+      <c r="B35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="63">
+        <v>2</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="34"/>
       <c r="Q35" s="35"/>
       <c r="R35" s="36"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <f>A35+1</f>
         <v>23</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43">
+        <f>A36+1</f>
+        <v>24</v>
+      </c>
+      <c r="B37" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C37" s="45">
         <v>1</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="11"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="48"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -9734,21 +9806,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -10602,11 +10674,11 @@
       <c r="I12" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">

--- a/Template/Projektplan.xlsx
+++ b/Template/Projektplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078D170-F315-4CAB-9792-B8A38E027399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC136B5-01D8-4325-8CF4-FCC77F9D29AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5865" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -296,18 +296,12 @@
     <t>presentation "Literature"</t>
   </si>
   <si>
-    <t>Abstandssensor mittels Arduino</t>
-  </si>
-  <si>
     <t>Materialliste</t>
   </si>
   <si>
     <t>Gliederung</t>
   </si>
   <si>
-    <t>Einleitung</t>
-  </si>
-  <si>
     <t>Programmierung</t>
   </si>
   <si>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>Konstruktion inkl. Beschreibung</t>
+  </si>
+  <si>
+    <t>Demonstrator eines Schrittmotors</t>
+  </si>
+  <si>
+    <t>Bedienungsanleitung</t>
   </si>
 </sst>
 </file>
@@ -438,12 +438,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="40">
@@ -947,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1126,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,15 +1592,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1609,7 +1618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14487525" y="990600"/>
+          <a:off x="14563725" y="2781300"/>
           <a:ext cx="1457325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1882,16 +1891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1908,7 +1917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14478000" y="1571625"/>
+          <a:off x="14554200" y="3362325"/>
           <a:ext cx="1457325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1984,16 +1993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2010,7 +2019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14478000" y="2171700"/>
+          <a:off x="14554200" y="3962400"/>
           <a:ext cx="1457325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2086,16 +2095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2112,7 +2121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14478000" y="2752725"/>
+          <a:off x="14554200" y="4543425"/>
           <a:ext cx="1457325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2188,16 +2197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2214,7 +2223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14478000" y="3324225"/>
+          <a:off x="14554200" y="5114925"/>
           <a:ext cx="1457325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2290,16 +2299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>55685</xdr:rowOff>
+      <xdr:rowOff>27110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>167549</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>710474</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>187568</xdr:rowOff>
+      <xdr:rowOff>158993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2316,8 +2325,57 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2495549" y="2808410"/>
+          <a:off x="6657974" y="2779835"/>
           <a:ext cx="720000" cy="131883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2455016-FB24-40CD-B89E-38F22B77737F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6667499" y="2963741"/>
+          <a:ext cx="1080000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2335,69 +2393,20 @@
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>49091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403724</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Rectangle 14" descr="10%">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2455016-FB24-40CD-B89E-38F22B77737F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3133724" y="2992316"/>
-          <a:ext cx="1080000" cy="131883"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>281850</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>160458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2414,14 +2423,14 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3371850" y="3190875"/>
-          <a:ext cx="720000" cy="131883"/>
+          <a:off x="6667499" y="3181350"/>
+          <a:ext cx="2276475" cy="112833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -2751,15 +2760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658950</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>179508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2776,14 +2785,14 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3810000" y="3571875"/>
+          <a:off x="6648450" y="3752850"/>
           <a:ext cx="1440000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -2807,15 +2816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658950</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>179508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2832,14 +2841,14 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3810000" y="3762375"/>
+          <a:off x="6648450" y="3943350"/>
           <a:ext cx="1440000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -2863,15 +2872,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>678000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658950</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>179508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2888,7 +2897,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3810000" y="3952875"/>
+          <a:off x="6648450" y="4133850"/>
           <a:ext cx="1440000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2918,16 +2927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>14475</xdr:colOff>
+      <xdr:colOff>757425</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>179508</xdr:rowOff>
+      <xdr:rowOff>169983</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2944,7 +2953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3800475" y="4133850"/>
+          <a:off x="6638925" y="4505325"/>
           <a:ext cx="6120000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2974,16 +2983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>160458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3000,7 +3009,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4724400" y="3362325"/>
+          <a:off x="6657975" y="3333750"/>
           <a:ext cx="4114800" cy="150933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3030,16 +3039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3056,7 +3065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14478000" y="4086225"/>
+          <a:off x="14554200" y="5876925"/>
           <a:ext cx="1457325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3100,16 +3109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>645525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3126,14 +3135,14 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4276725" y="4333875"/>
-          <a:ext cx="2160000" cy="131883"/>
+          <a:off x="6657975" y="3543300"/>
+          <a:ext cx="1543050" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3157,15 +3166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>636000</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616950</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>179508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3182,7 +3191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5029200" y="4143375"/>
+          <a:off x="6648450" y="4324350"/>
           <a:ext cx="2160000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3212,16 +3221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>678000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>687525</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>169983</xdr:rowOff>
+      <xdr:rowOff>179508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3238,7 +3247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8839200" y="4695825"/>
+          <a:off x="8201025" y="4705350"/>
           <a:ext cx="1440000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3301,7 +3310,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3324,16 +3333,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>678000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>687525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>169983</xdr:rowOff>
+      <xdr:rowOff>160458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3350,14 +3359,14 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5791200" y="5076825"/>
+          <a:off x="8201025" y="5067300"/>
           <a:ext cx="1440000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3413,7 +3422,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3716,16 +3725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>189033</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3742,8 +3751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5895974" y="6429375"/>
-          <a:ext cx="5324475" cy="131883"/>
+          <a:off x="6667500" y="6438900"/>
+          <a:ext cx="2295526" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8559,8 +8568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8694,7 +8703,7 @@
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="66" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -8896,8 +8905,8 @@
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>93</v>
+      <c r="B15" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="39">
         <v>1</v>
@@ -8920,11 +8929,11 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
-        <f t="shared" ref="A16:A37" si="0">A15+1</f>
+        <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="39">
         <v>1.5</v>
@@ -8950,11 +8959,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>95</v>
+      <c r="B17" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="C17" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
@@ -8978,7 +8987,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="39">
         <v>6</v>
@@ -9004,11 +9013,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>102</v>
+      <c r="B19" s="67" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
@@ -9031,8 +9040,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>97</v>
+      <c r="B20" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="39">
         <v>2</v>
@@ -9058,8 +9067,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>104</v>
+      <c r="B21" s="67" t="s">
+        <v>102</v>
       </c>
       <c r="C21" s="39">
         <v>2</v>
@@ -9085,8 +9094,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>103</v>
+      <c r="B22" s="67" t="s">
+        <v>101</v>
       </c>
       <c r="C22" s="39">
         <v>2</v>
@@ -9112,8 +9121,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>105</v>
+      <c r="B23" s="67" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="39">
         <v>3</v>
@@ -9140,7 +9149,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="39">
         <v>8</v>
@@ -9167,7 +9176,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="39">
         <v>2</v>
@@ -9194,7 +9203,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="39">
         <v>2</v>
@@ -9221,7 +9230,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="39">
         <v>2</v>
@@ -9247,8 +9256,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>109</v>
+      <c r="B28" s="67" t="s">
+        <v>107</v>
       </c>
       <c r="C28" s="39">
         <v>3</v>
@@ -9275,7 +9284,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="39">
         <v>3</v>
@@ -9302,7 +9311,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="39">
         <v>4</v>
@@ -9329,7 +9338,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="63">
         <v>2</v>
@@ -9355,7 +9364,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C32" s="39">
         <v>2</v>
@@ -9381,7 +9390,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="39">
         <v>2</v>
@@ -9406,8 +9415,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>115</v>
+      <c r="B34" s="67" t="s">
+        <v>113</v>
       </c>
       <c r="C34" s="39">
         <v>8</v>
@@ -9461,7 +9470,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="39">
         <v>0.5</v>
@@ -9487,7 +9496,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="45">
         <v>1</v>
@@ -9599,7 +9608,7 @@
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>

--- a/Template/Projektplan.xlsx
+++ b/Template/Projektplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC136B5-01D8-4325-8CF4-FCC77F9D29AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C1F9B04-7368-432C-83A6-82A993C1B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>Checklist</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>Bedienungsanleitung</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Montageanleitung</t>
+  </si>
+  <si>
+    <t>Demontageanleitung</t>
+  </si>
+  <si>
+    <t>5 Grafiken mit Tikz erstellen</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1127,13 +1145,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,13 +1234,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1264,13 +1285,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1315,13 +1336,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1366,13 +1387,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1417,13 +1438,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1696,13 +1717,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2455,13 +2476,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2506,13 +2527,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2557,13 +2578,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2608,13 +2629,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2659,13 +2680,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2710,13 +2731,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3759,6 +3780,398 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>24000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>159097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2DFF7B-C1A4-4785-9B28-1A6981E7D8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6667500" y="7184571"/>
+          <a:ext cx="6120000" cy="131883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>748392</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA4A5AB-8EDB-4623-B6AC-E77B79CA5984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10463892" y="6803571"/>
+          <a:ext cx="1537607" cy="136072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDEB1C1-30EF-4E07-A976-E6BA2B9035AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10491107" y="6994071"/>
+          <a:ext cx="1537607" cy="136072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037315C5-DD0E-4326-A4B0-D831E3862365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11239500" y="6602186"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87477932-8EF8-4698-AAED-676A93A8BC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7388679"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C2DC3B-CA16-4E7C-B59E-6420032B057E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7565571"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2B10C5-52A4-4280-8821-96269EAE44EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11239500" y="7742465"/>
+          <a:ext cx="1513113" cy="149679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -8152,11 +8565,11 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8178,12 +8591,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8400,12 +8813,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -8450,12 +8863,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -8566,10 +8979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8702,21 +9115,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -8878,7 +9291,7 @@
       <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="68" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="31">
@@ -8905,7 +9318,7 @@
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="39">
@@ -8959,7 +9372,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="65" t="s">
         <v>115</v>
       </c>
       <c r="C17" s="39">
@@ -9013,7 +9426,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="65" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="39">
@@ -9040,7 +9453,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="65" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="39">
@@ -9067,7 +9480,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="65" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="39">
@@ -9094,7 +9507,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="65" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="39">
@@ -9121,7 +9534,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="65" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="39">
@@ -9256,7 +9669,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="65" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="39">
@@ -9415,7 +9828,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="65" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="39">
@@ -9443,10 +9856,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C35" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
@@ -9470,10 +9883,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C36" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="41"/>
@@ -9490,193 +9903,294 @@
       <c r="P36" s="42"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
         <f>A36+1</f>
         <v>24</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="63">
+        <v>2</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <f>A37+1</f>
+        <v>25</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="39">
+        <v>8</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <f>A38+1</f>
+        <v>26</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="63">
+        <v>1</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <f>A39+1</f>
+        <v>27</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="39">
+        <v>1</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43">
+        <f>A40+1</f>
+        <v>28</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="45">
-        <v>1</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="Q38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51" t="s">
+      <c r="C41" s="45">
+        <v>2</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q44" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50"/>
+      <c r="B51" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38" t="s">
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="55"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44" t="s">
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="62"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="36" t="s">
+      <c r="C53" s="45"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="48"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="57" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="57" t="s">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9815,21 +10329,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -10683,11 +11197,11 @@
       <c r="I12" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">

--- a/Template/Projektplan.xlsx
+++ b/Template/Projektplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C1F9B04-7368-432C-83A6-82A993C1B569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FD8DF1-2717-42F7-A2B5-FB9DC0526ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>Checklist</t>
   </si>
@@ -379,12 +379,15 @@
   <si>
     <t>5 Grafiken mit Tikz erstellen</t>
   </si>
+  <si>
+    <t>MindMap des Automatisierungssystems, mit Xmind</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +452,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +479,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -967,11 +983,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1148,14 +1236,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,13 +1346,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1285,13 +1397,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1336,13 +1448,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1387,13 +1499,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1438,13 +1550,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1717,13 +1829,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2476,13 +2588,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2527,13 +2639,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2578,13 +2690,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2629,13 +2741,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2680,13 +2792,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2731,13 +2843,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4138,23 +4250,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>751113</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 14" descr="10%">
+        <xdr:cNvPr id="18" name="Rectangle 14" descr="10%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2B10C5-52A4-4280-8821-96269EAE44EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F91B7-32D1-45B4-8CFB-B902BC23C315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,8 +4276,792 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11239500" y="7742465"/>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E891B4-27F3-40A2-A1F5-2D4B045A3741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7542439"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0360AC44-0863-44E6-803E-08857B9911C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972A20AC-BB5A-4DF3-BAAB-A1CB2336A2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7542439"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1132B91C-D930-4959-A7D2-4CD06891BE82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46639865-4C99-4EAD-8D1F-658C2F4D614D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7542439"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC61C4E-9429-4F5B-927B-69E7AAB19E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541A1E5E-F432-4EBD-AC0E-987082A43335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7542439"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE61F29-9524-49D8-ACCB-1C131BFFA487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11239500" y="7719333"/>
           <a:ext cx="1513113" cy="149679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAFF5FE-A8C4-44B6-B04C-4A3494F23DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A49DB3-AB08-486A-89A2-E3049A85962F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7542439"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A5593B-8571-4EC7-88C5-81B15FCC6450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2719</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB573ED0-2730-486A-94FB-1AC396B87B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12015106" y="7542439"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65B0B9D-8EB8-4890-B580-930A24F20B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12001500" y="7365547"/>
+          <a:ext cx="751113" cy="160564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 14" descr="10%">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C2F7D1-A892-4A92-87E5-D1580428621A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10467976" y="7734299"/>
+          <a:ext cx="2298244" cy="159203"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8565,11 +9461,11 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8591,12 +9487,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8813,12 +9709,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -8863,12 +9759,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -8979,10 +9875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9115,21 +10011,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -9192,7 +10088,7 @@
       <c r="I11" s="16">
         <v>16</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="69">
         <v>17</v>
       </c>
       <c r="K11" s="16">
@@ -9291,7 +10187,7 @@
       <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="31">
@@ -9852,7 +10748,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A40" si="1">A34+1</f>
         <v>22</v>
       </c>
       <c r="B35" s="30" t="s">
@@ -9879,7 +10775,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B36" s="38" t="s">
@@ -9905,7 +10801,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -9931,7 +10827,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B38" s="38" t="s">
@@ -9957,7 +10853,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -10007,104 +10903,146 @@
       <c r="P40" s="42"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="70">
         <f>A40+1</f>
         <v>28</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="39">
+        <v>1</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="71">
+        <f>A41+1</f>
+        <v>29</v>
+      </c>
+      <c r="B42" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C42" s="73">
         <v>2</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="76"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q44" s="11"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="51" t="s">
+    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="55"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="62"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="62"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="48"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="48"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
+      <c r="B54" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -10121,9 +11059,6 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="B55" s="36" t="s">
-        <v>99</v>
-      </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -10140,6 +11075,9 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
+      <c r="B56" s="57" t="s">
+        <v>62</v>
+      </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -10157,7 +11095,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -10166,38 +11104,20 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
+      <c r="K57" s="58"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10329,21 +11249,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -11197,11 +12117,11 @@
       <c r="I12" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">

--- a/Template/Projektplan.xlsx
+++ b/Template/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FD8DF1-2717-42F7-A2B5-FB9DC0526ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E408D7-D91D-430F-B6AE-A8F3C9E09F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,9 +344,6 @@
     <t>Beschreibung der zusätzlichen Hardware</t>
   </si>
   <si>
-    <t>Beschreibung der Funktionsweise</t>
-  </si>
-  <si>
     <t>Beschreibung der verw. Algorithmen…</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
   </si>
   <si>
     <t>Beispielprogramme</t>
-  </si>
-  <si>
-    <t>Beschreibung der Anwendung</t>
   </si>
   <si>
     <t>Konstruktion inkl. Beschreibung</t>
@@ -377,10 +371,16 @@
     <t>Demontageanleitung</t>
   </si>
   <si>
-    <t>5 Grafiken mit Tikz erstellen</t>
+    <t>MindMap des Automatisierungssystems, mit Xmind</t>
   </si>
   <si>
-    <t>MindMap des Automatisierungssystems, mit Xmind</t>
+    <t>Beschreibung der Anwendung ???</t>
+  </si>
+  <si>
+    <t>Beschreibung der Funktionsweise ???</t>
+  </si>
+  <si>
+    <t>Alle Grafiken mit Tikz erstellen (mindestens 5)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1239,12 +1245,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,6 +1268,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,8 +1307,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1317,7 +1326,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
           <a:off x="14239875" y="2562225"/>
-          <a:ext cx="19050" cy="3800475"/>
+          <a:ext cx="19050" cy="5505450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2432,14 +2441,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>27110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>710474</xdr:colOff>
+      <xdr:colOff>729524</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>158993</xdr:rowOff>
     </xdr:to>
@@ -2458,7 +2467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6657974" y="2779835"/>
+          <a:off x="6677024" y="2779835"/>
           <a:ext cx="720000" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2533,13 +2542,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>160458</xdr:rowOff>
+      <xdr:rowOff>160459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2556,8 +2565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6667499" y="3181350"/>
-          <a:ext cx="2276475" cy="112833"/>
+          <a:off x="6667499" y="3152776"/>
+          <a:ext cx="7524751" cy="141408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2893,13 +2902,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>742949</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>658950</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>179508</xdr:rowOff>
     </xdr:to>
@@ -2918,8 +2927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6648450" y="3752850"/>
-          <a:ext cx="1440000" cy="131883"/>
+          <a:off x="6648449" y="3752850"/>
+          <a:ext cx="5362575" cy="131883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2951,13 +2960,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>658950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>179508</xdr:rowOff>
+      <xdr:rowOff>179509</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2974,8 +2983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6648450" y="3943350"/>
-          <a:ext cx="1440000" cy="131883"/>
+          <a:off x="6648450" y="3933826"/>
+          <a:ext cx="1562100" cy="141408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3117,13 +3126,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>160458</xdr:rowOff>
     </xdr:to>
@@ -3142,8 +3151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6657975" y="3333750"/>
-          <a:ext cx="4114800" cy="150933"/>
+          <a:off x="6657974" y="3343275"/>
+          <a:ext cx="5343525" cy="141408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3248,7 +3257,7 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -3269,7 +3278,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="6657975" y="3543300"/>
-          <a:ext cx="1543050" cy="142875"/>
+          <a:ext cx="5353050" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3299,15 +3308,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>742949</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>616950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179508</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3324,8 +3333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6648450" y="4324350"/>
-          <a:ext cx="2160000" cy="131883"/>
+          <a:off x="6648449" y="4324350"/>
+          <a:ext cx="5362575" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3354,16 +3363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>687525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>179508</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3380,8 +3389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8201025" y="4705350"/>
-          <a:ext cx="1440000" cy="131883"/>
+          <a:off x="9715500" y="4705350"/>
+          <a:ext cx="3790950" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3634,14 +3643,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>189033</xdr:rowOff>
     </xdr:to>
@@ -3660,8 +3669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8077200" y="5667375"/>
-          <a:ext cx="2880000" cy="131883"/>
+          <a:off x="8953499" y="5648325"/>
+          <a:ext cx="3057525" cy="150933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3696,10 +3705,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>687525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>179508</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3716,8 +3725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5800725" y="5857875"/>
-          <a:ext cx="1440000" cy="131883"/>
+          <a:off x="6677025" y="5848350"/>
+          <a:ext cx="5334000" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,16 +3867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3884,8 +3893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6667500" y="6438900"/>
-          <a:ext cx="2295526" cy="104775"/>
+          <a:off x="6667499" y="6410326"/>
+          <a:ext cx="5324475" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4698,16 +4707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>42183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>751113</xdr:colOff>
+      <xdr:colOff>741588</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:rowOff>191862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4724,7 +4733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11239500" y="7719333"/>
+          <a:off x="11229975" y="7938408"/>
           <a:ext cx="1513113" cy="149679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9461,11 +9470,11 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9487,12 +9496,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9709,12 +9718,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -9759,12 +9768,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -9878,7 +9887,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10011,21 +10020,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="D8" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -10088,7 +10097,7 @@
       <c r="I11" s="16">
         <v>16</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="67">
         <v>17</v>
       </c>
       <c r="K11" s="16">
@@ -10214,7 +10223,7 @@
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="77" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="39">
@@ -10241,7 +10250,7 @@
         <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="77" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="39">
@@ -10269,7 +10278,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="39">
         <v>3</v>
@@ -10295,7 +10304,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="65" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="39">
@@ -10376,7 +10385,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="77" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="39">
@@ -10403,7 +10412,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="77" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="39">
@@ -10457,7 +10466,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="65" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="39">
@@ -10511,7 +10520,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="77" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="39">
@@ -10538,7 +10547,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="77" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="39">
@@ -10565,7 +10574,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="77" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="39">
@@ -10592,8 +10601,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>108</v>
+      <c r="B29" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="C29" s="39">
         <v>3</v>
@@ -10620,7 +10629,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="39">
         <v>4</v>
@@ -10647,7 +10656,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="63">
         <v>2</v>
@@ -10672,8 +10681,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>111</v>
+      <c r="B32" s="77" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="39">
         <v>2</v>
@@ -10699,7 +10708,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C33" s="39">
         <v>2</v>
@@ -10725,7 +10734,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="39">
         <v>8</v>
@@ -10748,11 +10757,11 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
-        <f t="shared" ref="A35:A40" si="1">A34+1</f>
+        <f t="shared" ref="A35:A39" si="1">A34+1</f>
         <v>22</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="63">
         <v>1</v>
@@ -10779,7 +10788,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="39">
         <v>2</v>
@@ -10805,7 +10814,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="63">
         <v>2</v>
@@ -10830,8 +10839,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>119</v>
+      <c r="B38" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="C38" s="39">
         <v>8</v>
@@ -10904,12 +10913,12 @@
       <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="68">
         <f>A40+1</f>
         <v>28</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C41" s="39">
         <v>1</v>
@@ -10930,29 +10939,29 @@
       <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="71">
+      <c r="A42" s="69">
         <f>A41+1</f>
         <v>29</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="71">
         <v>2</v>
       </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="76"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="74"/>
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11249,21 +11258,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -12117,11 +12126,11 @@
       <c r="I12" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
